--- a/empirical_experiment_material/Responses/Session 3A (Responses).xlsx
+++ b/empirical_experiment_material/Responses/Session 3A (Responses).xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lola\Desktop\Gits\beliefFusionPlugin\empirical_experiment_material\Responses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34254957-4A86-4525-A6DA-F19D39ABFBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
-    <t>Name the other two members of your group</t>
-  </si>
-  <si>
     <t>Please, upload a screenshot of your model (only one member of the group)</t>
   </si>
   <si>
@@ -39,12 +53,6 @@
   </si>
   <si>
     <t>In case you did not reach a consensus, and from your point of view, which were the major obstacles that hindered reaching an agreement?</t>
-  </si>
-  <si>
-    <t>moriolh@uoc.edu</t>
-  </si>
-  <si>
-    <t>Marcos Gomez</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=19R8lqEHvgE0NHaulO7v6VPmdWhsn9Cty</t>
@@ -62,12 +70,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>mgomezvazqu@uoc.edu</t>
-  </si>
-  <si>
-    <t>Marc Oriol</t>
-  </si>
-  <si>
     <t>Yes, we will not dig in Mount Nebo</t>
   </si>
   <si>
@@ -77,12 +79,6 @@
     <t>1. I didn't have a solid opinion on wether to dig or not (I had a lot of doubts). Marc did, and since his opinion is conservative and preferes to not risk, I trust him and decide not to dig</t>
   </si>
   <si>
-    <t>jginermi@uoc.edu</t>
-  </si>
-  <si>
-    <t>Joan Giner</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1H24bm0PQFYO_tbHfOBXKe9JcqqW_1dBp</t>
   </si>
   <si>
@@ -98,12 +94,6 @@
     <t>The opposition between 1 and 3.</t>
   </si>
   <si>
-    <t>ebatot@uoc.edu</t>
-  </si>
-  <si>
-    <t>Joan &amp; Ivan</t>
-  </si>
-  <si>
     <t>Yes, we go to Mount Nebo dig the truth out of the soil !</t>
   </si>
   <si>
@@ -119,12 +109,6 @@
     <t xml:space="preserve">The main obstacle is the ability to link the facts, or interpretations of the facts, to their quantified values. Beliefs, contradictory beliefs, and differences in rethoric abilities hamper an ethical and equally shared "consensus". </t>
   </si>
   <si>
-    <t>ialfonsod@uoc.edu</t>
-  </si>
-  <si>
-    <t>Edouard y Joan</t>
-  </si>
-  <si>
     <t>Despues de discutir y unir las sugerencias, acordamos viajar para hacer la excavación</t>
   </si>
   <si>
@@ -140,12 +124,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>mgm7cns@uma.es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Canal, Alejandro Pérez </t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=10zFXOUC7KQ58eiWrdLTIhwAefoPxtLd7</t>
   </si>
   <si>
@@ -161,24 +139,12 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>carloscanal@uma.es</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS CANAL VELASCO</t>
-  </si>
-  <si>
     <t>Hemos expresado la opinión de cada uno y al final hemos votado y tomado la decisión por mayoría</t>
   </si>
   <si>
     <t>1 - No, ha sido muy rápido</t>
   </si>
   <si>
-    <t>apvereda@uma.es</t>
-  </si>
-  <si>
-    <t>Carlos y María</t>
-  </si>
-  <si>
     <t>No aceptamos los fondos, no excavaremos allí</t>
   </si>
   <si>
@@ -191,12 +157,6 @@
     <t>si</t>
   </si>
   <si>
-    <t>dbandera@lcc.uma.es</t>
-  </si>
-  <si>
-    <t>Rafa y Miguel Ángel</t>
-  </si>
-  <si>
     <t>Discutiendo la confianza que tenía cada uno sobre la localización de las ruinas, decidimos lo que pensábamos que era más probable, que en nuestro caso fue aceptar la financiación para excavar.</t>
   </si>
   <si>
@@ -212,12 +172,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>miggalrui@uma.es</t>
-  </si>
-  <si>
-    <t>David y Rafa</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1_fa0LNaZtsY7xHSq-cMWb3-rbrTqdqty</t>
   </si>
   <si>
@@ -233,12 +187,6 @@
     <t>Sí, hemos llegado a una conclusión la cual nos ha satisfacido a todos.</t>
   </si>
   <si>
-    <t>mfernandez@uma.es</t>
-  </si>
-  <si>
-    <t>Julia y Juan</t>
-  </si>
-  <si>
     <t>Como las opiniones no eran muy conflictivas el consenso no fue dificil y terminamos calculando una media de los valores de las opiniones con una pequeña rectificación.</t>
   </si>
   <si>
@@ -251,12 +199,6 @@
     <t>hubo consenso</t>
   </si>
   <si>
-    <t>rgarcialuque@lcc.uma.es</t>
-  </si>
-  <si>
-    <t>Miguel y David</t>
-  </si>
-  <si>
     <t>Nuestro equipo se compone de tres integrantes y dos personas tienen una opinión parecida respecto a la localización y otras dos respecto a la existencia. Por tanto, hemos confiado en la opinión mayoritaria para tomar una decisión respecto a cada uno de los dos parámetros.</t>
   </si>
   <si>
@@ -272,12 +214,6 @@
     <t>La diferencia entre las opiniones de cada uno de los miembros pues al no tener nada en común, no puede estimarse nada que acerque las tres opiniones.</t>
   </si>
   <si>
-    <t>juanpalmaborda@hotmail.com</t>
-  </si>
-  <si>
-    <t>Julia y Manolo</t>
-  </si>
-  <si>
     <t>Hicimos la media de las opiniones. Y llegamos a la idea de que nos ibamos a buscar las ruinas. SBoolean(0.6, 0, 0.4, 0.5)</t>
   </si>
   <si>
@@ -288,12 +224,6 @@
   </si>
   <si>
     <t>Llegamos a conceso pero la falta de detalles sobre el problema lastro un poco la discusion.</t>
-  </si>
-  <si>
-    <t>juliarobles1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan y Manolo</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1M52ugtCITRsZ4sDChoBapPyBQ_avKwAd</t>
@@ -320,31 +250,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="m-d-yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m\-d\-yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -354,11 +289,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -372,76 +313,60 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -631,42 +556,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="21.57"/>
-    <col customWidth="1" min="5" max="5" width="38.14"/>
-    <col customWidth="1" min="6" max="6" width="75.71"/>
-    <col customWidth="1" min="7" max="22" width="21.57"/>
+    <col min="1" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="4" max="4" width="75.6640625" customWidth="1"/>
+    <col min="5" max="20" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -675,513 +603,426 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44518.528167789351</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>44518.52816778935</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44518.52959431713</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44518.531092025463</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44518.532612719908</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>44518.53109202546</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>44518.534056215278</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>44518.53261271991</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>44518.53405621528</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="7"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="N6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44526.55757099537</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44526.557735925926</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44526.558657500005</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>44511.488043981481</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>44511.490740740737</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>44511.491284722222</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11">
-        <v>44511.48804398148</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11">
-        <v>44511.49074074074</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11">
-        <v>44511.49128472222</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>44511.497245370374</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="12" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>44511.49768518518</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>85</v>
-      </c>
+        <v>44511.497685185182</v>
+      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="12" t="s">
-        <v>87</v>
+        <v>59</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>61</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>44511.500555555554</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>91</v>
+      <c r="B15" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>96</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D7"/>
-    <hyperlink r:id="rId4" ref="D11"/>
-    <hyperlink r:id="rId5" ref="D15"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B16" s="1">
-        <f>Median(B2:B15)</f>
+        <f>MEDIAN(B2:B15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1">
-        <f>mode(B2:B15)</f>
+        <f>MODE(B2:B15)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>